--- a/medicine/Psychotrope/Pott's_Brauerei/Pott's_Brauerei.xlsx
+++ b/medicine/Psychotrope/Pott's_Brauerei/Pott's_Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pott%27s_Brauerei</t>
+          <t>Pott's_Brauerei</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Pott’s Brauerei est une brasserie à Oelde.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pott%27s_Brauerei</t>
+          <t>Pott's_Brauerei</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fondation remonte à 1769 par l'acquisition par Franz-Arnold Feldmann d'un domaine avec une brasserie et une boulangerie dans le centre-ville d'Oelde. Par le mariage de l'héritière Theresia Elisabeth Bernhardina Feldmann avec l'aubergiste Bernhard Pott en 1851, la famille propriétaire actuelle devient la propriété de la brasserie.
 En 1996, commence la nouvelle construction de la brasserie Pott's avec la maturation, la mise en bouteille, la filtration et l'expédition à la sortie de l'autoroute d'Oelde. Du maltage à la fermentation, cependant, la production reste dans les salles nouvellement redessinées de la brasserie de la vieille ville. En 2003, le Georg-Lechner-Biermuseum est construit ; y est exposée la plus grande collection d'étiquettes de bière au monde et un grand nombre de vieilles tasses et bouteilles de bière. En 2006, la brasserie se lance dans des boissons non alcoolisées. Depuis janvier 2007, le Franz-Arnold-Halle de 1 100 m2 sert de salle de conférences et aussi lieu de soirées de gala, de concerts, d'événements sportifs, etc.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pott%27s_Brauerei</t>
+          <t>Pott's_Brauerei</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Productions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bières
 Pott’s Pilsener
